--- a/flows/HYG_fund_flow_data.xlsx
+++ b/flows/HYG_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4259"/>
+  <dimension ref="A1:B4271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43025,6 +43025,126 @@
         <v>-308.5388</v>
       </c>
     </row>
+    <row r="4260">
+      <c r="A4260" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4260" t="n">
+        <v>-562.722</v>
+      </c>
+    </row>
+    <row r="4261">
+      <c r="A4261" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4261" t="n">
+        <v>231.5544</v>
+      </c>
+    </row>
+    <row r="4262">
+      <c r="A4262" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4262" t="n">
+        <v>215.33932</v>
+      </c>
+    </row>
+    <row r="4263">
+      <c r="A4263" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4263" t="n">
+        <v>431.06503</v>
+      </c>
+    </row>
+    <row r="4264">
+      <c r="A4264" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4264" t="n">
+        <v>-69.29738999999999</v>
+      </c>
+    </row>
+    <row r="4265">
+      <c r="A4265" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4265" t="n">
+        <v>-107.99936</v>
+      </c>
+    </row>
+    <row r="4266">
+      <c r="A4266" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4266" t="n">
+        <v>-30.91268</v>
+      </c>
+    </row>
+    <row r="4267">
+      <c r="A4267" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4267" t="n">
+        <v>448.79355</v>
+      </c>
+    </row>
+    <row r="4268">
+      <c r="A4268" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4268" t="n">
+        <v>-309.2424</v>
+      </c>
+    </row>
+    <row r="4269">
+      <c r="A4269" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4269" t="n">
+        <v>193.35025</v>
+      </c>
+    </row>
+    <row r="4270">
+      <c r="A4270" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4270" t="n">
+        <v>-487.60678</v>
+      </c>
+    </row>
+    <row r="4271">
+      <c r="A4271" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4271" t="n">
+        <v>-470.46555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
